--- a/63.QTDL-1.xlsx
+++ b/63.QTDL-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Dinh\Desktop\tinhocb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CFCB2D-68B3-45CA-B433-7CAF51C290F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A333EC-BC83-49F8-A0DB-C0116B07864D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{056E3057-A143-4F7D-98C1-38F810F019E9}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
   <si>
     <t>STT</t>
   </si>
@@ -359,9 +351,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -380,6 +369,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -706,18 +698,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF62EE1-C7E9-4EBB-9EBF-3F25E6EE0D97}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="7"/>
-    <col min="6" max="16" width="9.140625" style="9"/>
+    <col min="1" max="1" width="7.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
+    <col min="6" max="16" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -727,10 +719,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="2">
         <v>1</v>
       </c>
@@ -769,10 +761,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>63130117</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -781,12 +773,15 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="5">
@@ -798,12 +793,15 @@
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="5">
@@ -815,12 +813,15 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="5">
@@ -832,12 +833,15 @@
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="5">
@@ -849,12 +853,15 @@
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="5">
@@ -866,12 +873,12 @@
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="5">
@@ -883,12 +890,12 @@
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="5">
@@ -900,12 +907,15 @@
       <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="5">
@@ -917,12 +927,15 @@
       <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="5">
@@ -934,12 +947,15 @@
       <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="5">
@@ -951,12 +967,15 @@
       <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="5">
@@ -968,12 +987,15 @@
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="5">
@@ -985,12 +1007,12 @@
       <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="5">
@@ -1002,12 +1024,15 @@
       <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="5">
@@ -1019,12 +1044,15 @@
       <c r="D16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="5">
@@ -1036,12 +1064,12 @@
       <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="5">
@@ -1053,12 +1081,12 @@
       <c r="D18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="5">
@@ -1070,12 +1098,15 @@
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="5">
@@ -1087,12 +1118,15 @@
       <c r="D20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="5">
@@ -1104,12 +1138,15 @@
       <c r="D21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="5">
@@ -1121,12 +1158,15 @@
       <c r="D22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="5">
@@ -1138,9 +1178,12 @@
       <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="F23" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="5">
@@ -1152,12 +1195,15 @@
       <c r="D24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="5">
@@ -1169,12 +1215,12 @@
       <c r="D25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="5">
@@ -1186,21 +1232,24 @@
       <c r="D26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="E26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>63132666</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="14" t="s">
@@ -1219,7 +1268,7 @@
       <c r="P27" s="16"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="5">
@@ -1231,12 +1280,15 @@
       <c r="D28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="5">
@@ -1248,12 +1300,15 @@
       <c r="D29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="5">
@@ -1265,12 +1320,15 @@
       <c r="D30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="5">
@@ -1282,9 +1340,12 @@
       <c r="D31" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F31" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="5">
@@ -1296,7 +1357,10 @@
       <c r="D32" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>59</v>
       </c>
     </row>

--- a/63.QTDL-1.xlsx
+++ b/63.QTDL-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A333EC-BC83-49F8-A0DB-C0116B07864D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A1FC83-72E7-4737-840E-18960238C834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{056E3057-A143-4F7D-98C1-38F810F019E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
   <si>
     <t>STT</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Thúy</t>
   </si>
   <si>
-    <t>Phạm Huỳnh Thanh</t>
-  </si>
-  <si>
     <t>Nguyễn Lê Minh</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
   </si>
   <si>
     <t>Tuyền</t>
-  </si>
-  <si>
-    <t>chuyển lớp</t>
   </si>
   <si>
     <t>x</t>
@@ -211,17 +205,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,14 +232,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,14 +246,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -295,91 +270,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -696,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF62EE1-C7E9-4EBB-9EBF-3F25E6EE0D97}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -719,10 +638,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="2">
         <v>1</v>
       </c>
@@ -774,10 +693,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -794,10 +716,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -814,10 +736,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -834,10 +756,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -854,10 +779,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -874,7 +799,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -891,7 +819,10 @@
         <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -908,10 +839,13 @@
         <v>17</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -928,10 +862,10 @@
         <v>19</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -948,10 +882,13 @@
         <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -968,10 +905,13 @@
         <v>21</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -988,10 +928,10 @@
         <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1008,7 +948,10 @@
         <v>25</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1025,10 +968,13 @@
         <v>27</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1045,13 +991,13 @@
         <v>29</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1065,10 +1011,10 @@
         <v>29</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1082,10 +1028,13 @@
         <v>32</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1099,13 +1048,16 @@
         <v>34</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1119,13 +1071,13 @@
         <v>36</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1139,13 +1091,13 @@
         <v>36</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1159,13 +1111,13 @@
         <v>36</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1179,10 +1131,10 @@
         <v>40</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1196,13 +1148,16 @@
         <v>42</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1216,10 +1171,10 @@
         <v>44</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1233,141 +1188,121 @@
         <v>46</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+        <v>57</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="11">
-        <v>63132666</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="5">
+        <v>63135849</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="16"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="5">
-        <v>63135849</v>
+        <v>63132748</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="5">
-        <v>63132748</v>
+        <v>63131598</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="5">
-        <v>63131598</v>
+        <v>63136000</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="5">
-        <v>63136000</v>
+        <v>63131639</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5">
-        <v>63131639</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E27:P27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/63.QTDL-1.xlsx
+++ b/63.QTDL-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A1FC83-72E7-4737-840E-18960238C834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F9ADD9-C41B-459E-B1FA-65E25710074A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{056E3057-A143-4F7D-98C1-38F810F019E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="59">
   <si>
     <t>STT</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -617,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF62EE1-C7E9-4EBB-9EBF-3F25E6EE0D97}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -701,6 +704,9 @@
       <c r="G2" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="H2" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -721,6 +727,12 @@
       <c r="F3" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="G3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -741,6 +753,12 @@
       <c r="F4" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="G4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -784,6 +802,9 @@
       <c r="F6" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="H6" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -804,6 +825,9 @@
       <c r="G7" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="H7" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -824,6 +848,9 @@
       <c r="G8" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="H8" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -847,6 +874,9 @@
       <c r="G9" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="H9" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -867,6 +897,12 @@
       <c r="F10" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="G10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -890,6 +926,9 @@
       <c r="G11" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="H11" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -913,6 +952,9 @@
       <c r="G12" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="H12" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -933,6 +975,12 @@
       <c r="F13" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="G13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -953,6 +1001,9 @@
       <c r="G14" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="H14" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -976,6 +1027,9 @@
       <c r="G15" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="H15" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -996,8 +1050,14 @@
       <c r="F16" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1014,7 +1074,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1033,8 +1093,11 @@
       <c r="G18" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1056,8 +1119,11 @@
       <c r="G19" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1076,8 +1142,14 @@
       <c r="F20" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1097,7 +1169,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1117,7 +1189,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1133,8 +1205,11 @@
       <c r="F23" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1156,8 +1231,11 @@
       <c r="G24" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1174,7 +1252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1197,7 +1275,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1216,8 +1294,14 @@
       <c r="F27" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1239,8 +1323,11 @@
       <c r="G28" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1262,8 +1349,11 @@
       <c r="G29" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1280,7 +1370,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1297,6 +1387,12 @@
         <v>57</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>57</v>
       </c>
     </row>

--- a/63.QTDL-1.xlsx
+++ b/63.QTDL-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F9ADD9-C41B-459E-B1FA-65E25710074A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EB2CD-02CA-4D5F-9E2A-11F30851C30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{056E3057-A143-4F7D-98C1-38F810F019E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="59">
   <si>
     <t>STT</t>
   </si>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF62EE1-C7E9-4EBB-9EBF-3F25E6EE0D97}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -630,8 +630,7 @@
     <col min="2" max="2" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="6"/>
-    <col min="6" max="16" width="9.140625" style="8"/>
+    <col min="5" max="16" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -698,13 +697,13 @@
       <c r="E2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -724,13 +723,16 @@
       <c r="E3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -750,13 +752,13 @@
       <c r="E4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="F4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -776,10 +778,10 @@
       <c r="E5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -799,10 +801,13 @@
       <c r="E6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="F6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -822,11 +827,14 @@
       <c r="E7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>58</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -845,11 +853,14 @@
       <c r="E8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>58</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -868,13 +879,16 @@
       <c r="E9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="F9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -894,13 +908,16 @@
       <c r="E10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="F10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -920,13 +937,13 @@
       <c r="E11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="F11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -946,13 +963,13 @@
       <c r="E12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="F12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -972,13 +989,16 @@
       <c r="E13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="F13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -998,10 +1018,13 @@
       <c r="E14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1021,13 +1044,16 @@
       <c r="E15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="F15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1047,17 +1073,20 @@
       <c r="E16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1073,8 +1102,11 @@
       <c r="E17" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1090,14 +1122,17 @@
       <c r="E18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1113,17 +1148,20 @@
       <c r="E19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1139,17 +1177,20 @@
       <c r="E20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1165,11 +1206,14 @@
       <c r="E21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1185,11 +1229,14 @@
       <c r="E22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1202,14 +1249,17 @@
       <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1225,17 +1275,20 @@
       <c r="E24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1251,8 +1304,11 @@
       <c r="E25" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1268,14 +1324,17 @@
       <c r="E26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1291,17 +1350,20 @@
       <c r="E27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1317,17 +1379,20 @@
       <c r="E28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1343,17 +1408,17 @@
       <c r="E29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1366,11 +1431,14 @@
       <c r="D30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1386,13 +1454,13 @@
       <c r="E31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="8" t="s">
+      <c r="F31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>57</v>
       </c>
     </row>

--- a/63.QTDL-1.xlsx
+++ b/63.QTDL-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EB2CD-02CA-4D5F-9E2A-11F30851C30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BAA83A-7B02-457C-80FF-0E266D096618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{056E3057-A143-4F7D-98C1-38F810F019E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>STT</t>
   </si>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF62EE1-C7E9-4EBB-9EBF-3F25E6EE0D97}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -706,6 +706,9 @@
       <c r="H2" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -735,6 +738,9 @@
       <c r="I3" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J3" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -761,6 +767,9 @@
       <c r="H4" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J4" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -784,6 +793,9 @@
       <c r="G5" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J5" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -810,6 +822,9 @@
       <c r="I6" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J6" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -836,6 +851,9 @@
       <c r="I7" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J7" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -862,6 +880,9 @@
       <c r="I8" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J8" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -891,6 +912,9 @@
       <c r="I9" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J9" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -920,6 +944,9 @@
       <c r="I10" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J10" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -946,6 +973,9 @@
       <c r="H11" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J11" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -972,6 +1002,9 @@
       <c r="H12" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J12" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -1001,6 +1034,9 @@
       <c r="I13" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J13" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1027,6 +1063,9 @@
       <c r="I14" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J14" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -1056,6 +1095,9 @@
       <c r="I15" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J15" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -1085,8 +1127,11 @@
       <c r="I16" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1105,8 +1150,11 @@
       <c r="I17" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1131,8 +1179,11 @@
       <c r="I18" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1160,8 +1211,11 @@
       <c r="I19" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1189,8 +1243,11 @@
       <c r="I20" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1212,8 +1269,11 @@
       <c r="I21" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1235,8 +1295,11 @@
       <c r="I22" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1258,8 +1321,11 @@
       <c r="I23" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1287,8 +1353,11 @@
       <c r="I24" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1307,8 +1376,11 @@
       <c r="I25" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1333,8 +1405,11 @@
       <c r="I26" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1362,8 +1437,11 @@
       <c r="I27" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1392,7 +1470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1417,8 +1495,11 @@
       <c r="H29" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1437,8 +1518,11 @@
       <c r="I30" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1461,6 +1545,9 @@
         <v>57</v>
       </c>
       <c r="H31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>57</v>
       </c>
     </row>

--- a/63.QTDL-1.xlsx
+++ b/63.QTDL-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BAA83A-7B02-457C-80FF-0E266D096618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2EC944-52C2-44FE-9EE8-3273A93ACA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{056E3057-A143-4F7D-98C1-38F810F019E9}"/>
   </bookViews>
@@ -236,7 +236,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +246,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -302,6 +308,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -620,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF62EE1-C7E9-4EBB-9EBF-3F25E6EE0D97}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -630,7 +642,8 @@
     <col min="2" max="2" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="9.140625" style="6"/>
+    <col min="5" max="15" width="9.140625" style="6"/>
+    <col min="16" max="16" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -677,7 +690,7 @@
       <c r="O1" s="2">
         <v>11</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="10">
         <v>12</v>
       </c>
     </row>

--- a/63.QTDL-1.xlsx
+++ b/63.QTDL-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2EC944-52C2-44FE-9EE8-3273A93ACA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AAF737-DCFC-4C5B-93EF-C06F51CD7CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{056E3057-A143-4F7D-98C1-38F810F019E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>Chu Nữ Nguyên</t>
+  </si>
+  <si>
+    <t>Anh</t>
   </si>
 </sst>
 </file>
@@ -307,13 +313,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -630,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF62EE1-C7E9-4EBB-9EBF-3F25E6EE0D97}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -643,7 +649,7 @@
     <col min="3" max="3" width="30.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="15" width="9.140625" style="6"/>
-    <col min="16" max="16" width="9.140625" style="11"/>
+    <col min="16" max="16" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -653,10 +659,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="2">
         <v>1</v>
       </c>
@@ -690,7 +696,7 @@
       <c r="O1" s="2">
         <v>11</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="9">
         <v>12</v>
       </c>
     </row>
@@ -719,7 +725,13 @@
       <c r="H2" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -754,6 +766,9 @@
       <c r="J3" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="K3" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -783,6 +798,9 @@
       <c r="J4" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="K4" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -806,7 +824,16 @@
       <c r="G5" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="H5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -829,6 +856,9 @@
       <c r="F6" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="G6" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>57</v>
       </c>
@@ -836,6 +866,9 @@
         <v>57</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -855,6 +888,9 @@
       <c r="E7" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>57</v>
       </c>
@@ -865,6 +901,9 @@
         <v>57</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -884,6 +923,9 @@
       <c r="E8" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="F8" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="G8" s="6" t="s">
         <v>57</v>
       </c>
@@ -894,6 +936,9 @@
         <v>57</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -928,6 +973,9 @@
       <c r="J9" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="K9" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -960,6 +1008,9 @@
       <c r="J10" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="K10" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -986,7 +1037,13 @@
       <c r="H11" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="I11" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1015,6 +1072,9 @@
       <c r="H12" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="I12" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J12" s="6" t="s">
         <v>57</v>
       </c>
@@ -1050,6 +1110,9 @@
       <c r="J13" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="K13" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1079,6 +1142,9 @@
       <c r="J14" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="K14" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -1111,6 +1177,9 @@
       <c r="J15" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="K15" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -1144,7 +1213,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1160,14 +1229,26 @@
       <c r="E17" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="F17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="I17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1183,6 +1264,9 @@
       <c r="E18" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="F18" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="G18" s="6" t="s">
         <v>57</v>
       </c>
@@ -1195,8 +1279,11 @@
       <c r="J18" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1227,8 +1314,11 @@
       <c r="J19" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1259,8 +1349,11 @@
       <c r="J20" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1286,7 +1379,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1305,14 +1398,20 @@
       <c r="F22" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="G22" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="I22" s="6" t="s">
         <v>57</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1337,8 +1436,11 @@
       <c r="J23" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1369,8 +1471,11 @@
       <c r="J24" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1386,14 +1491,20 @@
       <c r="E25" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="H25" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="I25" s="6" t="s">
         <v>57</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1421,8 +1532,11 @@
       <c r="J26" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1453,8 +1567,11 @@
       <c r="J27" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1482,8 +1599,11 @@
       <c r="I28" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1508,11 +1628,17 @@
       <c r="H29" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="I29" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J29" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1528,14 +1654,20 @@
       <c r="F30" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="H30" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="I30" s="6" t="s">
         <v>57</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1560,7 +1692,45 @@
       <c r="H31" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="I31" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J31" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <v>63130027</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>57</v>
       </c>
     </row>

--- a/63.QTDL-1.xlsx
+++ b/63.QTDL-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AAF737-DCFC-4C5B-93EF-C06F51CD7CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB97C5E-BFB8-4494-ABFD-ADEE15452B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{056E3057-A143-4F7D-98C1-38F810F019E9}"/>
   </bookViews>
@@ -20,12 +20,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -639,7 +647,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -734,6 +742,9 @@
       <c r="K2" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="L2" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -801,6 +812,9 @@
       <c r="K4" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="L4" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -836,6 +850,9 @@
       <c r="K5" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="L5" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -871,6 +888,9 @@
       <c r="K6" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="L6" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -906,6 +926,9 @@
       <c r="K7" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="L7" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -941,6 +964,9 @@
       <c r="K8" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="L8" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -976,6 +1002,9 @@
       <c r="K9" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="L9" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -1011,6 +1040,9 @@
       <c r="K10" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="L10" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -1046,6 +1078,9 @@
       <c r="K11" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="L11" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -1078,6 +1113,9 @@
       <c r="J12" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="L12" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -1113,6 +1151,9 @@
       <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="L13" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1212,8 +1253,11 @@
       <c r="J16" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1248,7 +1292,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1282,8 +1326,11 @@
       <c r="K18" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1318,7 +1365,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1352,8 +1399,11 @@
       <c r="K20" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1372,14 +1422,20 @@
       <c r="F21" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="H21" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="I21" s="6" t="s">
         <v>57</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1410,8 +1466,11 @@
       <c r="K22" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1439,8 +1498,11 @@
       <c r="K23" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1474,8 +1536,11 @@
       <c r="K24" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1503,8 +1568,11 @@
       <c r="K25" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1535,8 +1603,11 @@
       <c r="K26" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1571,7 +1642,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1602,8 +1673,11 @@
       <c r="K28" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1637,8 +1711,11 @@
       <c r="K29" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1666,8 +1743,11 @@
       <c r="K30" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1698,8 +1778,11 @@
       <c r="J31" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>

--- a/63.QTDL-1.xlsx
+++ b/63.QTDL-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB97C5E-BFB8-4494-ABFD-ADEE15452B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55D716B-B40C-422F-A346-C7FB78F7CA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{056E3057-A143-4F7D-98C1-38F810F019E9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF62EE1-C7E9-4EBB-9EBF-3F25E6EE0D97}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -745,6 +745,9 @@
       <c r="L2" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="M2" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -815,6 +818,9 @@
       <c r="L4" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="M4" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -891,6 +897,9 @@
       <c r="L6" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="M6" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -929,6 +938,9 @@
       <c r="L7" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="M7" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -967,6 +979,9 @@
       <c r="L8" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="M8" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -1005,6 +1020,9 @@
       <c r="L9" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="M9" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -1043,6 +1061,9 @@
       <c r="L10" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="M10" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -1081,6 +1102,9 @@
       <c r="L11" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="M11" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -1116,6 +1140,9 @@
       <c r="L12" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -1154,6 +1181,9 @@
       <c r="L13" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="M13" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1186,6 +1216,9 @@
       <c r="K14" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="M14" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -1221,6 +1254,12 @@
       <c r="K15" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="L15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -1256,8 +1295,11 @@
       <c r="L16" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1292,7 +1334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1329,8 +1371,11 @@
       <c r="L18" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1364,8 +1409,11 @@
       <c r="K19" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1403,7 +1451,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1434,8 +1482,11 @@
       <c r="L21" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1469,8 +1520,11 @@
       <c r="L22" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1501,8 +1555,11 @@
       <c r="L23" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1539,8 +1596,11 @@
       <c r="L24" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1571,8 +1631,11 @@
       <c r="L25" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1606,8 +1669,11 @@
       <c r="L26" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1641,8 +1707,11 @@
       <c r="K27" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1677,7 +1746,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1714,8 +1783,11 @@
       <c r="L29" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1746,8 +1818,14 @@
       <c r="L30" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1781,8 +1859,11 @@
       <c r="L31" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>

--- a/63.QTDL-1.xlsx
+++ b/63.QTDL-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55D716B-B40C-422F-A346-C7FB78F7CA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A389178E-ACE1-4E52-B1C1-E1773EA9D839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{056E3057-A143-4F7D-98C1-38F810F019E9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF62EE1-C7E9-4EBB-9EBF-3F25E6EE0D97}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -748,6 +748,9 @@
       <c r="M2" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N2" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -783,6 +786,9 @@
       <c r="K3" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N3" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -821,6 +827,9 @@
       <c r="M4" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N4" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -859,6 +868,9 @@
       <c r="L5" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N5" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -900,6 +912,9 @@
       <c r="M6" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N6" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -941,6 +956,9 @@
       <c r="M7" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N7" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -982,6 +1000,9 @@
       <c r="M8" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N8" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -1064,6 +1085,9 @@
       <c r="M10" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N10" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -1105,6 +1129,9 @@
       <c r="M11" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N11" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -1143,6 +1170,9 @@
       <c r="M12" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N12" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -1184,6 +1214,9 @@
       <c r="M13" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N13" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1219,6 +1252,9 @@
       <c r="M14" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N14" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -1260,6 +1296,9 @@
       <c r="M15" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N15" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -1374,6 +1413,9 @@
       <c r="M18" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N18" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
@@ -1412,6 +1454,9 @@
       <c r="M19" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N19" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
@@ -1450,6 +1495,9 @@
       <c r="L20" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N20" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
@@ -1523,6 +1571,9 @@
       <c r="M22" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N22" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
@@ -1599,6 +1650,9 @@
       <c r="M24" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N24" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
@@ -1634,6 +1688,9 @@
       <c r="M25" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N25" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
@@ -1672,6 +1729,9 @@
       <c r="M26" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N26" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
@@ -1710,6 +1770,9 @@
       <c r="M27" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N27" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
@@ -1745,6 +1808,9 @@
       <c r="L28" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N28" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
@@ -1786,6 +1852,9 @@
       <c r="M29" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N29" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
@@ -1862,6 +1931,9 @@
       <c r="M31" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N31" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
@@ -1895,6 +1967,9 @@
         <v>57</v>
       </c>
       <c r="K32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>57</v>
       </c>
     </row>

--- a/63.QTDL-1.xlsx
+++ b/63.QTDL-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A389178E-ACE1-4E52-B1C1-E1773EA9D839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4723470-E39C-465F-9118-08A1CEFDCC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{056E3057-A143-4F7D-98C1-38F810F019E9}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{056E3057-A143-4F7D-98C1-38F810F019E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF62EE1-C7E9-4EBB-9EBF-3F25E6EE0D97}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -751,6 +751,10 @@
       <c r="N2" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="P2" s="10">
+        <f>COUNTIF(E2:N2,"x")</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -789,6 +793,10 @@
       <c r="N3" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P32" si="0">COUNTIF(E3:N3,"x")</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -830,6 +838,10 @@
       <c r="N4" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="P4" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -871,6 +883,10 @@
       <c r="N5" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="P5" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -915,6 +931,10 @@
       <c r="N6" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="P6" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -959,6 +979,10 @@
       <c r="N7" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="P7" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -1003,6 +1027,10 @@
       <c r="N8" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="P8" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -1044,6 +1072,10 @@
       <c r="M9" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="P9" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -1088,6 +1120,10 @@
       <c r="N10" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="P10" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -1132,6 +1168,10 @@
       <c r="N11" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="P11" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -1173,6 +1213,10 @@
       <c r="N12" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="P12" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -1217,6 +1261,10 @@
       <c r="N13" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="P13" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1255,6 +1303,10 @@
       <c r="N14" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="P14" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -1299,6 +1351,10 @@
       <c r="N15" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="P15" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -1337,8 +1393,12 @@
       <c r="M16" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P16" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1372,8 +1432,12 @@
       <c r="K17" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P17" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1416,8 +1480,12 @@
       <c r="N18" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P18" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1457,8 +1525,12 @@
       <c r="N19" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P19" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1498,8 +1570,12 @@
       <c r="N20" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P20" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1533,8 +1609,12 @@
       <c r="M21" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P21" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1574,8 +1654,12 @@
       <c r="N22" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P22" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1609,8 +1693,12 @@
       <c r="M23" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P23" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1653,8 +1741,12 @@
       <c r="N24" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P24" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1691,8 +1783,12 @@
       <c r="N25" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P25" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1732,8 +1828,12 @@
       <c r="N26" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P26" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1773,8 +1873,12 @@
       <c r="N27" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P27" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1811,8 +1915,12 @@
       <c r="N28" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P28" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1855,8 +1963,12 @@
       <c r="N29" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P29" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1893,8 +2005,12 @@
       <c r="N30" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P30" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1934,8 +2050,12 @@
       <c r="N31" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P31" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1971,6 +2091,10 @@
       </c>
       <c r="N32" s="6" t="s">
         <v>57</v>
+      </c>
+      <c r="P32" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
